--- a/MOS系统可用性测试记录表.xlsx
+++ b/MOS系统可用性测试记录表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HelloGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>任务描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,14 +219,18 @@
   </si>
   <si>
     <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,18 +474,18 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,6 +497,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,263 +818,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="41.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.25" customHeight="1">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.25" customHeight="1">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" customHeight="1">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="27" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="C13:M13"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B8:M8"/>
     <mergeCell ref="C2:M2"/>
@@ -1073,11 +1105,6 @@
     <mergeCell ref="C5:M5"/>
     <mergeCell ref="C6:M6"/>
     <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="C13:M13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O2:O5">
@@ -1108,7 +1135,7 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="44.875" style="2" customWidth="1"/>
@@ -1120,7 +1147,7 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.9" customHeight="1">
+    <row r="1" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -1143,7 +1170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:7" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
@@ -1164,7 +1191,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:7" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
@@ -1181,11 +1208,11 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" ht="24.6" customHeight="1">
+    <row r="4" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="11"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1198,7 +1225,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -1211,7 +1238,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -1224,7 +1251,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -1237,7 +1264,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -1250,7 +1277,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -1281,7 +1308,7 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="44.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="40.625" style="12" customWidth="1"/>
@@ -1291,7 +1318,7 @@
     <col min="7" max="7" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.9" customHeight="1">
+    <row r="1" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -1314,7 +1341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:7" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
@@ -1335,7 +1362,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:7" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
@@ -1352,11 +1379,11 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" ht="24.6" customHeight="1">
+    <row r="4" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="11"/>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1369,7 +1396,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -1382,7 +1409,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -1395,7 +1422,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -1408,7 +1435,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -1436,7 +1463,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
@@ -1445,7 +1472,7 @@
     <col min="5" max="5" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
@@ -1462,7 +1489,7 @@
       <c r="L1" s="19"/>
       <c r="M1" s="20"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
@@ -1479,7 +1506,7 @@
       <c r="L2" s="19"/>
       <c r="M2" s="20"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1">
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>49</v>
       </c>
@@ -1490,7 +1517,7 @@
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>48</v>
       </c>
@@ -1507,7 +1534,7 @@
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
         <v>26</v>
       </c>
@@ -1524,7 +1551,7 @@
       <c r="L5" s="19"/>
       <c r="M5" s="20"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1539,25 +1566,25 @@
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="23"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="22"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
@@ -1583,24 +1610,24 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
